--- a/AndyTEST/Libs/UserStoriesChecklist.xlsx
+++ b/AndyTEST/Libs/UserStoriesChecklist.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Story 1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="45">
   <si>
     <t>Story 1</t>
   </si>
@@ -30,9 +30,6 @@
     <t>Check the flight number from London to Munich.</t>
   </si>
   <si>
-    <t>Check the priority boarding from London airport.</t>
-  </si>
-  <si>
     <t>Check the average ticket price for flight from London to Munich less than 120 Euro.</t>
   </si>
   <si>
@@ -66,9 +63,6 @@
     <t>1001;</t>
   </si>
   <si>
-    <t>SELECT priorityBoarding FROM Airpirts WHERE airport = 'yes';</t>
-  </si>
-  <si>
     <t>yes;</t>
   </si>
   <si>
@@ -105,9 +99,6 @@
     <t>1006;1007;1008;1009;1010;</t>
   </si>
   <si>
-    <t>SELECT flightNumber FROM Flights INNER JOIN Airlines ON Flights.flightNumber = Airlines.flightNumber WHERE departureAirport = 'New York' AND isMealincluded = 'yes';</t>
-  </si>
-  <si>
     <t>1005;1006;1007;1008;1010;</t>
   </si>
   <si>
@@ -141,20 +132,124 @@
     <t>Check the airlines with average tickets price of less than 100 Euro.</t>
   </si>
   <si>
-    <t>SELECT airline FROM Airlines INNER JOIN Flights ON Airlines.flightNumber = Flights.flightNumber WHERE arrivalAirport = 'Milan' AND arrivalAirport = 'Helsinki';</t>
-  </si>
-  <si>
-    <t>Windrose Aero;</t>
-  </si>
-  <si>
-    <t>SELECT airline FROM Airlines INNER JOIN Flights ON Airlines.flightNumber = Flights.flightNumber WHERE arrivalAirport = 'Milan' AND arrivalAirport = 'Helsinki' AND webRegistration = 'yes';</t>
+    <t>Check the priority boarding for flight from London airport.</t>
+  </si>
+  <si>
+    <t>SELECT priorityBoarding FROM Airports WHERE airport = 'London';</t>
+  </si>
+  <si>
+    <t>SELECT Flights.flightNumber FROM Flights INNER JOIN Airlines ON Flights.flightNumber = Airlines.flightNumber WHERE departureAirport = 'New York' AND isMealincluded = 'yes';</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">SELECT airline FROM Airlines INNER JOIN Flights ON Airlines.flightNumber = Flights.flightNumber WHERE arrivalAirport = 'Milan' </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>AND / OR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> arrivalAirport = 'Helsinki';</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>SELECT airline FROM Airlines INNER JOIN Flights ON Airlines.flightNumber = Flights.flightNumber WHERE</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ( </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">arrivalAirport = 'Milan' </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>AND / OR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> arrivalAirport = 'Helsinki' </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>AND webRegistration = 'yes';</t>
+    </r>
+  </si>
+  <si>
+    <t>Lufthansa;Windrose Aero;Cathay Pacific;Virgin;Emirates;Windrose Aero;AirAsia;Emirates;Air France;</t>
+  </si>
+  <si>
+    <t>Lufthansa;Cathay Pacific;Virgin;Emirates;Emirates;</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -175,6 +270,15 @@
       <b/>
       <sz val="14"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -234,7 +338,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -274,10 +378,13 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -289,6 +396,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -337,7 +447,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -372,7 +482,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -583,17 +693,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.625" customWidth="1"/>
-    <col min="2" max="2" width="60.625" customWidth="1"/>
-    <col min="3" max="3" width="40.625" customWidth="1"/>
-    <col min="4" max="5" width="15.625" customWidth="1"/>
-    <col min="6" max="6" width="13.625" customWidth="1"/>
+    <col min="1" max="1" width="11.5703125" customWidth="1"/>
+    <col min="2" max="2" width="60.5703125" customWidth="1"/>
+    <col min="3" max="3" width="40.5703125" customWidth="1"/>
+    <col min="4" max="5" width="15.5703125" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
@@ -608,22 +718,22 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="C2" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="D2" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="E2" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="F2" s="9" t="s">
         <v>12</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -634,10 +744,10 @@
         <v>3</v>
       </c>
       <c r="C3" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="10" t="s">
         <v>14</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>15</v>
       </c>
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
@@ -646,30 +756,30 @@
       <c r="A4" s="2">
         <v>2</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>4</v>
+      <c r="B4" s="16" t="s">
+        <v>38</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
     </row>
-    <row r="5" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
@@ -679,13 +789,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
@@ -695,13 +805,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
@@ -939,17 +1049,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.625" customWidth="1"/>
-    <col min="2" max="2" width="60.625" customWidth="1"/>
-    <col min="3" max="3" width="40.625" customWidth="1"/>
-    <col min="4" max="5" width="15.625" customWidth="1"/>
-    <col min="6" max="6" width="13.625" customWidth="1"/>
+    <col min="1" max="1" width="11.5703125" customWidth="1"/>
+    <col min="2" max="2" width="60.5703125" customWidth="1"/>
+    <col min="3" max="3" width="40.5703125" customWidth="1"/>
+    <col min="4" max="5" width="15.5703125" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
@@ -964,22 +1074,22 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="C2" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="D2" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="E2" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="F2" s="9" t="s">
         <v>12</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -987,13 +1097,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
@@ -1003,13 +1113,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
@@ -1018,46 +1128,46 @@
       <c r="A5" s="2">
         <v>3</v>
       </c>
-      <c r="B5" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>27</v>
+      <c r="B5" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>25</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
     </row>
-    <row r="6" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
     </row>
-    <row r="7" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>5</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
@@ -1297,16 +1407,16 @@
   <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.625" customWidth="1"/>
-    <col min="2" max="2" width="60.625" customWidth="1"/>
-    <col min="3" max="3" width="40.625" customWidth="1"/>
-    <col min="4" max="5" width="15.625" customWidth="1"/>
-    <col min="6" max="6" width="13.625" customWidth="1"/>
+    <col min="1" max="1" width="11.5703125" customWidth="1"/>
+    <col min="2" max="2" width="60.5703125" customWidth="1"/>
+    <col min="3" max="3" width="40.5703125" customWidth="1"/>
+    <col min="4" max="5" width="15.5703125" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
@@ -1321,51 +1431,53 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="C2" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="D2" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="E2" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="F2" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:6" ht="135" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C3" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="13" t="s">
-        <v>42</v>
+      <c r="D3" s="12" t="s">
+        <v>43</v>
       </c>
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
     </row>
-    <row r="4" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="D4" s="13"/>
+        <v>42</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>44</v>
+      </c>
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
     </row>
@@ -1373,8 +1485,8 @@
       <c r="A5" s="2">
         <v>3</v>
       </c>
-      <c r="B5" s="16" t="s">
-        <v>40</v>
+      <c r="B5" s="15" t="s">
+        <v>37</v>
       </c>
       <c r="C5" s="12"/>
       <c r="D5" s="13"/>
@@ -1623,5 +1735,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/AndyTEST/Libs/UserStoriesChecklist.xlsx
+++ b/AndyTEST/Libs/UserStoriesChecklist.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Story 1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="47">
   <si>
     <t>Story 1</t>
   </si>
@@ -81,21 +81,12 @@
     <t>SELECT additionalSpaceService FROM</t>
   </si>
   <si>
-    <t>SELECT flightNumber FROM Flights WHERE departureAirport = 'New York';</t>
-  </si>
-  <si>
     <t>1005;1006;1007;1008;1009;1010;</t>
   </si>
   <si>
-    <t>SELECT flightNumber FROM Flights WHERE departureAirport = 'New York' AND stopsNumber = 0;</t>
-  </si>
-  <si>
     <t>1008;</t>
   </si>
   <si>
-    <t>SELECT flightNumber FROM Flights WHERE averageTicketPrice &lt; 500 AND departureAirport = 'New York';</t>
-  </si>
-  <si>
     <t>1006;1007;1008;1009;1010;</t>
   </si>
   <si>
@@ -117,9 +108,6 @@
     <t>Check the flight from New York and where the Duty Free shops are in the destination airport.</t>
   </si>
   <si>
-    <t>SELECT flightNumber FROM Flights INNER JOIN Airports ON Flights.airportNumber = Airports.airportNumber WHERE departureAirport = 'New York' AND dutyFree = 'yes';</t>
-  </si>
-  <si>
     <t>1006;1007;1008;1009;</t>
   </si>
   <si>
@@ -138,118 +126,64 @@
     <t>SELECT priorityBoarding FROM Airports WHERE airport = 'London';</t>
   </si>
   <si>
-    <t>SELECT Flights.flightNumber FROM Flights INNER JOIN Airlines ON Flights.flightNumber = Airlines.flightNumber WHERE departureAirport = 'New York' AND isMealincluded = 'yes';</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">SELECT airline FROM Airlines INNER JOIN Flights ON Airlines.flightNumber = Flights.flightNumber WHERE arrivalAirport = 'Milan' </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>AND / OR</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> arrivalAirport = 'Helsinki';</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>SELECT airline FROM Airlines INNER JOIN Flights ON Airlines.flightNumber = Flights.flightNumber WHERE</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ( </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">arrivalAirport = 'Milan' </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>AND / OR</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> arrivalAirport = 'Helsinki' </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">) </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>AND webRegistration = 'yes';</t>
-    </r>
-  </si>
-  <si>
     <t>Lufthansa;Windrose Aero;Cathay Pacific;Virgin;Emirates;Windrose Aero;AirAsia;Emirates;Air France;</t>
   </si>
   <si>
     <t>Lufthansa;Cathay Pacific;Virgin;Emirates;Emirates;</t>
+  </si>
+  <si>
+    <t>-- SHow airlines which have ticket price less 100 Euro
+SELECT airline FROM Airlines
+INNER JOIN Flights
+ON Airlines.flightNumber = Flights.flightNumber
+WHERE averageTicketPrice &lt; 100
+GROUP BY airline
+-- Show airline which have average ticket price less 100 Euro
+SELECT airline FROM Airlines
+INNER JOIN Flights
+ON Airlines.flightNumber = Flights.flightNumber
+GROUP BY airline
+HAVING AVG(averageTicketPrice) &lt; 100</t>
+  </si>
+  <si>
+    <t>Air France
+AirAsia
+Austrian Airlines
+Cathay Pacific
+Emirates
+Lufthansa
+Ryanair
+Turkish Airlines
+Windrose Aero
+WizzAir                                                                                                      *                                     *                                 *                                  *                                        *                                          *                                        *                                                 *                                             *                                Turkish Airlines</t>
+  </si>
+  <si>
+    <t>SELECT airline FROM Airlines INNER JOIN Flights ON Airlines.flightNumber = Flights.flightNumber WHERE arrivalAirport IN ('Milan' , 'Helsinki' ) AND webRegistration = 'yes' GROUP BY airline</t>
+  </si>
+  <si>
+    <t>SELECT airline FROM Airlines INNER JOIN Flights ON Airlines.flightNumber = Flights.flightNumber WHERE arrivalAirport IN('Milan', 'Helsinki') GROUP BY airline</t>
+  </si>
+  <si>
+    <t>SELECT flightNumber FROM Flights INNER JOIN Airports ON Flights.airportNumber = Airports.airportNumber WHERE departureAirport = 'New York' AND dutyFree = 'yes'</t>
+  </si>
+  <si>
+    <t>SELECT Flights.flightNumber FROM Flights INNER JOIN Airlines ON Flights.flightNumber = Airlines.flightNumber WHERE departureAirport = 'New York' AND isMealincluded = 'yes'</t>
+  </si>
+  <si>
+    <t>SELECT flightNumber FROM Flights WHERE averageTicketPrice &lt; 500 AND departureAirport = 'New York'</t>
+  </si>
+  <si>
+    <t>SELECT flightNumber FROM Flights WHERE departureAirport = 'New York' AND stopsNumber = 0</t>
+  </si>
+  <si>
+    <t>SELECT flightNumber FROM Flights WHERE departureAirport = 'New York'</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -270,15 +204,6 @@
       <b/>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -338,7 +263,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -385,6 +310,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -693,7 +621,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -757,10 +685,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D4" s="10" t="s">
         <v>15</v>
@@ -1049,8 +977,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1097,13 +1025,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C3" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" s="12" t="s">
         <v>21</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>22</v>
       </c>
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
@@ -1113,13 +1041,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
@@ -1129,13 +1057,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
@@ -1145,13 +1073,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
@@ -1161,13 +1089,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
@@ -1407,7 +1335,7 @@
   <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1454,13 +1382,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C3" s="17" t="s">
         <v>41</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
@@ -1470,26 +1398,30 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="315" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>3</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="13"/>
+        <v>33</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>39</v>
+      </c>
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
     </row>

--- a/AndyTEST/Libs/UserStoriesChecklist.xlsx
+++ b/AndyTEST/Libs/UserStoriesChecklist.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Story 1" sheetId="1" r:id="rId1"/>
@@ -132,13 +132,28 @@
     <t>Lufthansa;Cathay Pacific;Virgin;Emirates;Emirates;</t>
   </si>
   <si>
-    <t>-- SHow airlines which have ticket price less 100 Euro
-SELECT airline FROM Airlines
-INNER JOIN Flights
-ON Airlines.flightNumber = Flights.flightNumber
-WHERE averageTicketPrice &lt; 100
-GROUP BY airline
--- Show airline which have average ticket price less 100 Euro
+    <t>SELECT airline FROM Airlines INNER JOIN Flights ON Airlines.flightNumber = Flights.flightNumber WHERE arrivalAirport IN ('Milan' , 'Helsinki' ) AND webRegistration = 'yes' GROUP BY airline</t>
+  </si>
+  <si>
+    <t>SELECT airline FROM Airlines INNER JOIN Flights ON Airlines.flightNumber = Flights.flightNumber WHERE arrivalAirport IN('Milan', 'Helsinki') GROUP BY airline</t>
+  </si>
+  <si>
+    <t>SELECT flightNumber FROM Flights INNER JOIN Airports ON Flights.airportNumber = Airports.airportNumber WHERE departureAirport = 'New York' AND dutyFree = 'yes'</t>
+  </si>
+  <si>
+    <t>SELECT Flights.flightNumber FROM Flights INNER JOIN Airlines ON Flights.flightNumber = Airlines.flightNumber WHERE departureAirport = 'New York' AND isMealincluded = 'yes'</t>
+  </si>
+  <si>
+    <t>SELECT flightNumber FROM Flights WHERE averageTicketPrice &lt; 500 AND departureAirport = 'New York'</t>
+  </si>
+  <si>
+    <t>SELECT flightNumber FROM Flights WHERE departureAirport = 'New York' AND stopsNumber = 0</t>
+  </si>
+  <si>
+    <t>SELECT flightNumber FROM Flights WHERE departureAirport = 'New York'</t>
+  </si>
+  <si>
+    <t>price less 100 Euro
 SELECT airline FROM Airlines
 INNER JOIN Flights
 ON Airlines.flightNumber = Flights.flightNumber
@@ -146,44 +161,14 @@
 HAVING AVG(averageTicketPrice) &lt; 100</t>
   </si>
   <si>
-    <t>Air France
-AirAsia
-Austrian Airlines
-Cathay Pacific
-Emirates
-Lufthansa
-Ryanair
-Turkish Airlines
-Windrose Aero
-WizzAir                                                                                                      *                                     *                                 *                                  *                                        *                                          *                                        *                                                 *                                             *                                Turkish Airlines</t>
-  </si>
-  <si>
-    <t>SELECT airline FROM Airlines INNER JOIN Flights ON Airlines.flightNumber = Flights.flightNumber WHERE arrivalAirport IN ('Milan' , 'Helsinki' ) AND webRegistration = 'yes' GROUP BY airline</t>
-  </si>
-  <si>
-    <t>SELECT airline FROM Airlines INNER JOIN Flights ON Airlines.flightNumber = Flights.flightNumber WHERE arrivalAirport IN('Milan', 'Helsinki') GROUP BY airline</t>
-  </si>
-  <si>
-    <t>SELECT flightNumber FROM Flights INNER JOIN Airports ON Flights.airportNumber = Airports.airportNumber WHERE departureAirport = 'New York' AND dutyFree = 'yes'</t>
-  </si>
-  <si>
-    <t>SELECT Flights.flightNumber FROM Flights INNER JOIN Airlines ON Flights.flightNumber = Airlines.flightNumber WHERE departureAirport = 'New York' AND isMealincluded = 'yes'</t>
-  </si>
-  <si>
-    <t>SELECT flightNumber FROM Flights WHERE averageTicketPrice &lt; 500 AND departureAirport = 'New York'</t>
-  </si>
-  <si>
-    <t>SELECT flightNumber FROM Flights WHERE departureAirport = 'New York' AND stopsNumber = 0</t>
-  </si>
-  <si>
-    <t>SELECT flightNumber FROM Flights WHERE departureAirport = 'New York'</t>
+    <t>Turkish Airlines</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -209,6 +194,13 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -231,7 +223,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="-0.249977111117893"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -263,7 +255,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -303,9 +295,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -314,6 +303,12 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -621,7 +616,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -684,7 +679,7 @@
       <c r="A4" s="2">
         <v>2</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="15" t="s">
         <v>34</v>
       </c>
       <c r="C4" s="12" t="s">
@@ -1028,7 +1023,7 @@
         <v>28</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D3" s="12" t="s">
         <v>21</v>
@@ -1044,7 +1039,7 @@
         <v>27</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D4" s="10" t="s">
         <v>22</v>
@@ -1056,11 +1051,11 @@
       <c r="A5" s="2">
         <v>3</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="17" t="s">
-        <v>44</v>
+      <c r="C5" s="16" t="s">
+        <v>42</v>
       </c>
       <c r="D5" s="12" t="s">
         <v>23</v>
@@ -1075,8 +1070,8 @@
       <c r="B6" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="17" t="s">
-        <v>43</v>
+      <c r="C6" s="16" t="s">
+        <v>41</v>
       </c>
       <c r="D6" s="12" t="s">
         <v>24</v>
@@ -1092,7 +1087,7 @@
         <v>29</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D7" s="12" t="s">
         <v>30</v>
@@ -1334,8 +1329,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1384,8 +1379,8 @@
       <c r="B3" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="17" t="s">
-        <v>41</v>
+      <c r="C3" s="16" t="s">
+        <v>39</v>
       </c>
       <c r="D3" s="12" t="s">
         <v>36</v>
@@ -1401,7 +1396,7 @@
         <v>32</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D4" s="12" t="s">
         <v>37</v>
@@ -1409,18 +1404,18 @@
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
     </row>
-    <row r="5" spans="1:6" ht="315" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>3</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="18" t="s">
-        <v>38</v>
+      <c r="C5" s="17" t="s">
+        <v>45</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
@@ -1516,7 +1511,7 @@
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="4"/>
-      <c r="C17" s="2"/>
+      <c r="C17" s="19"/>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>

--- a/AndyTEST/Libs/UserStoriesChecklist.xlsx
+++ b/AndyTEST/Libs/UserStoriesChecklist.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Story 1" sheetId="1" r:id="rId1"/>
@@ -16,16 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="47">
-  <si>
-    <t>Story 1</t>
-  </si>
-  <si>
-    <t>Story 2</t>
-  </si>
-  <si>
-    <t>Story 3</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="49">
   <si>
     <t>Check the flight number from London to Munich.</t>
   </si>
@@ -163,12 +154,27 @@
   <si>
     <t>Turkish Airlines</t>
   </si>
+  <si>
+    <t>1.</t>
+  </si>
+  <si>
+    <t>2.</t>
+  </si>
+  <si>
+    <t>3.</t>
+  </si>
+  <si>
+    <t>4.</t>
+  </si>
+  <si>
+    <t>5.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -186,15 +192,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -202,18 +199,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -255,7 +246,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -263,19 +254,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -292,7 +273,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -304,10 +285,10 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -370,7 +351,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -405,7 +386,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -614,354 +595,344 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F35"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" customWidth="1"/>
-    <col min="2" max="2" width="60.5703125" customWidth="1"/>
-    <col min="3" max="3" width="40.5703125" customWidth="1"/>
-    <col min="4" max="5" width="15.5703125" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" customWidth="1"/>
+    <col min="1" max="1" width="11.625" customWidth="1"/>
+    <col min="2" max="2" width="60.625" customWidth="1"/>
+    <col min="3" max="3" width="40.625" customWidth="1"/>
+    <col min="4" max="5" width="15.625" customWidth="1"/>
+    <col min="6" max="6" width="13.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="11" t="s">
+      <c r="C2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="D2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+    </row>
+    <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+    </row>
+    <row r="4" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="C4" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+    </row>
+    <row r="5" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-    </row>
-    <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>2</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-    </row>
-    <row r="5" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>3</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="12" t="s">
+      <c r="C6" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-    </row>
-    <row r="6" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>4</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
+      <c r="D6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
-        <v>5</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
+      <c r="A7" s="2"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
-      <c r="B8" s="4"/>
+      <c r="B8" s="3"/>
       <c r="C8" s="2"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
-      <c r="B9" s="4"/>
+      <c r="B9" s="3"/>
       <c r="C9" s="2"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
-      <c r="B12" s="4"/>
+      <c r="B12" s="3"/>
       <c r="C12" s="2"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
-      <c r="B13" s="4"/>
+      <c r="B13" s="3"/>
       <c r="C13" s="2"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
-      <c r="B14" s="4"/>
+      <c r="B14" s="3"/>
       <c r="C14" s="2"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
-      <c r="B15" s="4"/>
+      <c r="B15" s="3"/>
       <c r="C15" s="2"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
-      <c r="B16" s="4"/>
+      <c r="B16" s="3"/>
       <c r="C16" s="2"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
-      <c r="B17" s="4"/>
+      <c r="B17" s="3"/>
       <c r="C17" s="2"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
-      <c r="B18" s="4"/>
+      <c r="B18" s="3"/>
       <c r="C18" s="2"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
-      <c r="B19" s="4"/>
+      <c r="B19" s="3"/>
       <c r="C19" s="2"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
-      <c r="B20" s="4"/>
+      <c r="B20" s="3"/>
       <c r="C20" s="2"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
-      <c r="B21" s="4"/>
+      <c r="B21" s="3"/>
       <c r="C21" s="2"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
-      <c r="B22" s="4"/>
+      <c r="B22" s="3"/>
       <c r="C22" s="2"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
-      <c r="B23" s="4"/>
+      <c r="B23" s="3"/>
       <c r="C23" s="2"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
-      <c r="B24" s="4"/>
+      <c r="B24" s="3"/>
       <c r="C24" s="2"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
-      <c r="B25" s="4"/>
+      <c r="B25" s="3"/>
       <c r="C25" s="2"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
-      <c r="B26" s="4"/>
+      <c r="B26" s="3"/>
       <c r="C26" s="2"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
-      <c r="B27" s="4"/>
+      <c r="B27" s="3"/>
       <c r="C27" s="2"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
-      <c r="B28" s="4"/>
+      <c r="B28" s="3"/>
       <c r="C28" s="2"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
-      <c r="B29" s="4"/>
+      <c r="B29" s="3"/>
       <c r="C29" s="2"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
-      <c r="B30" s="4"/>
+      <c r="B30" s="3"/>
       <c r="C30" s="2"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
-      <c r="B31" s="4"/>
+      <c r="B31" s="3"/>
       <c r="C31" s="2"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
-      <c r="B32" s="4"/>
+      <c r="B32" s="3"/>
       <c r="C32" s="2"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
-      <c r="B33" s="4"/>
+      <c r="B33" s="3"/>
       <c r="C33" s="2"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
-      <c r="F33" s="8"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
-      <c r="B34" s="4"/>
+      <c r="B34" s="3"/>
       <c r="C34" s="2"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="8"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="2"/>
-      <c r="B35" s="4"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="8"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -970,354 +941,344 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F35"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" customWidth="1"/>
-    <col min="2" max="2" width="60.5703125" customWidth="1"/>
-    <col min="3" max="3" width="40.5703125" customWidth="1"/>
-    <col min="4" max="5" width="15.5703125" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" customWidth="1"/>
+    <col min="1" max="1" width="11.625" customWidth="1"/>
+    <col min="2" max="2" width="60.625" customWidth="1"/>
+    <col min="3" max="3" width="40.625" customWidth="1"/>
+    <col min="4" max="5" width="15.625" customWidth="1"/>
+    <col min="6" max="6" width="13.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="E1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="F1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>1</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" s="12" t="s">
+    </row>
+    <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="B2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+    </row>
+    <row r="3" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+    </row>
+    <row r="4" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+    </row>
+    <row r="5" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-    </row>
-    <row r="4" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>2</v>
-      </c>
-      <c r="B4" s="4" t="s">
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+    </row>
+    <row r="6" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-    </row>
-    <row r="5" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>3</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-    </row>
-    <row r="6" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>4</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-    </row>
-    <row r="7" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
-        <v>5</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
-      <c r="B29" s="4"/>
+      <c r="B29" s="3"/>
       <c r="C29" s="2"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
-      <c r="B30" s="4"/>
+      <c r="B30" s="3"/>
       <c r="C30" s="2"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
-      <c r="B31" s="4"/>
+      <c r="B31" s="3"/>
       <c r="C31" s="2"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
-      <c r="B32" s="4"/>
+      <c r="B32" s="3"/>
       <c r="C32" s="2"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
-      <c r="B33" s="4"/>
+      <c r="B33" s="3"/>
       <c r="C33" s="2"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
-      <c r="F33" s="8"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
-      <c r="B34" s="4"/>
+      <c r="B34" s="3"/>
       <c r="C34" s="2"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="8"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="2"/>
-      <c r="B35" s="4"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="8"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1327,338 +1288,328 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F35"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" customWidth="1"/>
-    <col min="2" max="2" width="60.5703125" customWidth="1"/>
-    <col min="3" max="3" width="40.5703125" customWidth="1"/>
-    <col min="4" max="5" width="15.5703125" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" customWidth="1"/>
+    <col min="1" max="1" width="11.625" customWidth="1"/>
+    <col min="2" max="2" width="60.625" customWidth="1"/>
+    <col min="3" max="3" width="40.625" customWidth="1"/>
+    <col min="4" max="5" width="15.625" customWidth="1"/>
+    <col min="6" max="6" width="13.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="E1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="F1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="135" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>1</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="D3" s="12" t="s">
+    </row>
+    <row r="2" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-    </row>
-    <row r="4" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>2</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-    </row>
-    <row r="5" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>3</v>
-      </c>
-      <c r="B5" s="18" t="s">
+      <c r="D2" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+    </row>
+    <row r="3" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="B3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+    </row>
+    <row r="4" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
+      <c r="B4" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
-      <c r="B6" s="4"/>
+      <c r="B6" s="3"/>
       <c r="C6" s="2"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
-      <c r="B7" s="4"/>
+      <c r="B7" s="3"/>
       <c r="C7" s="2"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
-      <c r="B8" s="4"/>
+      <c r="B8" s="3"/>
       <c r="C8" s="2"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
-      <c r="B9" s="4"/>
+      <c r="B9" s="3"/>
       <c r="C9" s="2"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
-      <c r="B10" s="4"/>
+      <c r="B10" s="3"/>
       <c r="C10" s="2"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
-      <c r="B11" s="4"/>
+      <c r="B11" s="3"/>
       <c r="C11" s="2"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
-      <c r="B12" s="4"/>
+      <c r="B12" s="3"/>
       <c r="C12" s="2"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
-      <c r="B13" s="4"/>
+      <c r="B13" s="3"/>
       <c r="C13" s="2"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
-      <c r="B14" s="4"/>
+      <c r="B14" s="3"/>
       <c r="C14" s="2"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
-      <c r="B15" s="4"/>
+      <c r="B15" s="3"/>
       <c r="C15" s="2"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
-      <c r="B18" s="4"/>
+      <c r="B18" s="3"/>
       <c r="C18" s="2"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
-      <c r="B19" s="4"/>
+      <c r="B19" s="3"/>
       <c r="C19" s="2"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
-      <c r="B20" s="4"/>
+      <c r="B20" s="3"/>
       <c r="C20" s="2"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
-      <c r="B21" s="4"/>
+      <c r="B21" s="3"/>
       <c r="C21" s="2"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
-      <c r="B22" s="4"/>
+      <c r="B22" s="3"/>
       <c r="C22" s="2"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
-      <c r="B23" s="4"/>
+      <c r="B23" s="3"/>
       <c r="C23" s="2"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
-      <c r="B24" s="4"/>
+      <c r="B24" s="3"/>
       <c r="C24" s="2"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
-      <c r="B25" s="4"/>
+      <c r="B25" s="3"/>
       <c r="C25" s="2"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
-      <c r="B26" s="4"/>
+      <c r="B26" s="3"/>
       <c r="C26" s="2"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
-      <c r="B27" s="4"/>
+      <c r="B27" s="3"/>
       <c r="C27" s="2"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
-      <c r="B28" s="4"/>
+      <c r="B28" s="3"/>
       <c r="C28" s="2"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
-      <c r="B29" s="4"/>
+      <c r="B29" s="3"/>
       <c r="C29" s="2"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
-      <c r="B30" s="4"/>
+      <c r="B30" s="3"/>
       <c r="C30" s="2"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
-      <c r="B31" s="4"/>
+      <c r="B31" s="3"/>
       <c r="C31" s="2"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
-      <c r="B32" s="4"/>
+      <c r="B32" s="3"/>
       <c r="C32" s="2"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
-      <c r="B33" s="4"/>
+      <c r="B33" s="3"/>
       <c r="C33" s="2"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
-      <c r="F33" s="8"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
-      <c r="B34" s="4"/>
+      <c r="B34" s="3"/>
       <c r="C34" s="2"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="8"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="2"/>
-      <c r="B35" s="4"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="8"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
